--- a/css_lib.xlsx
+++ b/css_lib.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="10320" windowHeight="9405"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,23 +15,344 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="65">
+  <si>
+    <t>css</t>
+  </si>
+  <si>
+    <t>css comment</t>
+  </si>
+  <si>
+    <t>.byline {
+ color: green;
+ font-size: .875em;
+ text-shadow: 2px 1px 5px orange; /* IE9 and earlier don't support */
+ } /* You can put comments here, too! */</t>
+  </si>
+  <si>
+    <t>css class(subclass)</t>
+  </si>
+  <si>
+    <t>&lt;p class="example"&gt;Here's , this paragraph will be blue.&lt;/p&gt;
+ &lt;p class="example example-2"&gt;Here's green instead of magenta.&lt;/p&gt;
+ …
+ .example {
+  color: blue;
+ }
+ .example.example-2 {
+  color: magenta;
+ }</t>
+  </si>
+  <si>
+    <t>css id</t>
+  </si>
+  <si>
+    <t>#someID { ... } &lt;p id="someID"&gt;...&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>common css attribute</t>
+  </si>
+  <si>
+    <t>◎◎文本
+  color（颜色，a 元素除外）
+  direction（方向）
+  font（字体）
+  font-family（字体系列）
+  font-size（字体大小）
+  font-style（用于设置斜体）
+  font-variant（用于设置小型大写字母）
+  font-weight（用于设置粗体）
+  letter-spacing（字母间距）
+  line-height（行高）
+  text-align（用于设置对齐方式）
+  text-indent（用于设置首行缩进）
+  text-transform（用于修改大小写）
+  visibility（可见性）
+  white-space（用于指定如何处理空格）
+  word-spacing（字间距）</t>
+  </si>
+  <si>
+    <t>◎◎列表
+  list-style（列表样式）
+  list-style-image（用于为列表指定定制的标记）
+  list-style-position（用于确定列表标记的位置）
+  list-style-type（用于设置列表的标记）</t>
+  </si>
+  <si>
+    <t>◎◎表格
+  border-collapse（用于控制表格相邻单元格的边框是否合并为单一边框）
+  border-spacing（用于指定表格边框之间的空隙大小）
+  caption-side（用于设置表格标题的位置）
+  empty-cells（用于设置是否显示表格中的空单元格）</t>
+  </si>
+  <si>
+    <t>◎◎页面设置（对于印刷物）
+  orphans（用于设置当元素内部发生分页时在页面底部需要保留的最少行数）
+  page-break-inside（用于设置元素内部的分页方式）
+  widows（用于设置当元素内部发生分页时在页面顶部需要保留的最少行数）</t>
+  </si>
+  <si>
+    <t>◎◎其他
+  cursor（鼠标指针）
+  quotes（用于指定引号样式）</t>
+  </si>
+  <si>
+    <t>em</t>
+  </si>
+  <si>
+    <t>有的长度是相对于其他值的。一个em 的长度大约与对应元素的字号相等。例如，对元素设置margin-left: 2em 就代表将元素的左外边距设为元素字号的两倍。（这种做 法被称为响应式Web 设计)</t>
+  </si>
+  <si>
+    <t>attributes</t>
+  </si>
+  <si>
+    <t>border: none;</t>
+  </si>
+  <si>
+    <t>font-size: .875em;</t>
+  </si>
+  <si>
+    <t>width: 80%;</t>
+  </si>
+  <si>
+    <t>line-height: 1.5;</t>
+  </si>
+  <si>
+    <t>z-index: 2;</t>
+  </si>
+  <si>
+    <t>opacity: 5;</t>
+  </si>
+  <si>
+    <t>background: url(bg-pattern.png);</t>
+  </si>
+  <si>
+    <t>color: rgb(89, 0, 127);</t>
+  </si>
+  <si>
+    <t>color: #59007f;</t>
+  </si>
+  <si>
+    <t>background-color: rgba(60,143,0,.75); /* 25% 透明度 */</t>
+  </si>
+  <si>
+    <t>font-family: arial, helvetica, sans-serif;</t>
+  </si>
+  <si>
+    <t>font-size: 100%;</t>
+  </si>
+  <si>
+    <t>padding: .5em;</t>
+  </si>
+  <si>
+    <t>border: 4px solid red;
+ …equivalent to …
+ border-width: 4px;
+ border-style: solid;
+ border-color: red;</t>
+  </si>
+  <si>
+    <t>font-style: italic;</t>
+  </si>
+  <si>
+    <t>font-weight: normal;</t>
+  </si>
+  <si>
+    <t>font-weight: bold;</t>
+  </si>
+  <si>
+    <t>line-height: 1.45;</t>
+  </si>
+  <si>
+    <t>font: 100% Geneva, Tahoma, Verdana;</t>
+  </si>
+  <si>
+    <t>background-image: url(sky.png);</t>
+  </si>
+  <si>
+    <t>background-repeat: repeat-x;</t>
+  </si>
+  <si>
+    <t>background-position: left bottom;</t>
+  </si>
+  <si>
+    <t>background-attachment: fixed;</t>
+  </si>
+  <si>
+    <t>letter-spacing: 7px;</t>
+  </si>
+  <si>
+    <t>text-indent: 2em; /* 30px */</t>
+  </si>
+  <si>
+    <t>text-align: center;</t>
+  </si>
+  <si>
+    <t>text-align: justify;</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>CSS3 指定了CSS2.1 本来就有的16 个基本的名称（参见图7.5.6），另外又增加了131 个。完整的列表见www.w3.org/TR/css3-color/#svg-color。</t>
+  </si>
+  <si>
+    <t>HTML&lt;&gt;CSS</t>
+  </si>
+  <si>
+    <t>&lt;link rel="stylesheet" href="style.css" /&gt;</t>
+  </si>
+  <si>
+    <t>嵌入式CSS</t>
+  </si>
+  <si>
+    <t>&lt;style&gt;
+ img {
+ border: 4px solid red;
+ }
+ &lt;/style&gt;</t>
+  </si>
+  <si>
+    <t>內聯式CSS</t>
+  </si>
+  <si>
+    <t>&lt;img src="img/palau.jpg" width="250"
+ ➝ height="163" alt="El Palau de la Música"
+ ➝ style="border: 4px solid red" /&gt;</t>
+  </si>
+  <si>
+    <t>selector</t>
+  </si>
+  <si>
+    <t>h1 em {
+ color: red;
+ }
+ /* 只對h1下的em有影响, 可以為遠祖</t>
+  </si>
+  <si>
+    <t>a[title] {
+ color: red;
+ }
+ 針對具title屬性的
+ 同理, 對有列Class或ID的元素可以如下處理:
+ p[class], p[id], 或更具體:
+ [attribute] 匹配指定属性，不论具体值是什么
+ [attribute="value"] 完全匹配指定属性值
+ [attribute~="value"] 属性值是以空格分隔的多个单词，其中有一个完全匹配指定值
+ [attribute|="value"] 属性值以value- 打头
+ [attribute^="value"] 属性值以value 开头，value 为完整的单词或单词的一部分
+ [attribute$="value"] 属性值以value 结尾，value 为完整的单词或单词的一部分
+ [attribute*="value"] 属性值为指定值的子字符串</t>
+  </si>
+  <si>
+    <t>用* { border: 2px
+ solid green; }</t>
+  </si>
+  <si>
+    <t>.architect &gt; p {
+ color: red;
+ }只針對父子關係</t>
+  </si>
+  <si>
+    <t>.architect p+p {
+ color: red;
+ }兄弟</t>
+  </si>
+  <si>
+    <t>li:first-child {
+ color: red;
+ }最早一子</t>
+  </si>
+  <si>
+    <t>li:last-child {
+ color: red;
+ }最後一子</t>
+  </si>
+  <si>
+    <t>p:first-letter {
+ color: red;
+ font-size: 1.4em; /* make letter
+ ➝ larger */
+ font-weight: bold;
+ }</t>
+  </si>
+  <si>
+    <t>p:first-line {
+ color: red;
+ }</t>
+  </si>
+  <si>
+    <t>a:link {
+ color: red;
+ }
+ a:visited {
+ color: orange;
+ }
+ a:focus {
+ color: purple;
+ }
+ a:hover {
+ color: green;
+ }
+ a:active {
+ color: blue;
+ }</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>Code Ref</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -46,19 +367,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -132,6 +465,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -166,6 +500,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -341,37 +676,610 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="55.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/css_lib.xlsx
+++ b/css_lib.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="71">
   <si>
     <t>css</t>
   </si>
@@ -137,9 +137,6 @@
     <t>background-color: rgba(60,143,0,.75); /* 25% 透明度 */</t>
   </si>
   <si>
-    <t>font-family: arial, helvetica, sans-serif;</t>
-  </si>
-  <si>
     <t>font-size: 100%;</t>
   </si>
   <si>
@@ -153,9 +150,6 @@
  border-color: red;</t>
   </si>
   <si>
-    <t>font-style: italic;</t>
-  </si>
-  <si>
     <t>font-weight: normal;</t>
   </si>
   <si>
@@ -163,9 +157,6 @@
   </si>
   <si>
     <t>line-height: 1.45;</t>
-  </si>
-  <si>
-    <t>font: 100% Geneva, Tahoma, Verdana;</t>
   </si>
   <si>
     <t>background-image: url(sky.png);</t>
@@ -308,12 +299,276 @@
   <si>
     <t>Code Ref</t>
   </si>
+  <si>
+    <t>font-style: italic;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>font-family: arial, helvetica, sans-serif;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>font: 100% Geneva, Tahoma, Verdana;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>custom font</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@font-face {
+    font-family: myFirstFont;
+    src: url(sansation_bold.woff);
+    font-weight: bold;
+}
+div {
+    font-family: myFirstFont;
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>中文字體</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>新细明体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> PMingLiU \65B0\7EC6\660E\4F53 &amp;#x65B0;&amp;#x7EC6;&amp;#x660E;&amp;#x4F53;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>细明体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> MingLiU \7EC6\660E\4F53 &amp;#x7EC6;&amp;#x660E;&amp;#x4F53;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>标楷体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> DFKai-SB \6807\6977\4F53 &amp;#x6807;&amp;#x6977;&amp;#x4F53;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>黑体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> SimHei \9ED1\4F53 &amp;#x9ED1;&amp;#x4F53;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>宋体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> SimSun \5B8B\4F53 &amp;#x5B8B;&amp;#x4F53;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>新宋体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> NSimSun \65B0\5B8B\4F53 &amp;#x65B0;&amp;#x5B8B;&amp;#x4F53;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>仿宋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> FangSong \4EFF\5B8B &amp;#x4EFF;&amp;#x5B8B;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>楷体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> KaiTi \6977\4F53 &amp;#x6977;&amp;#x4F53;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>仿宋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">_GB2312 FangSong_GB2312 \4EFF\5B8B_GB2312 &amp;#x4EFF;&amp;#x5B8B;_GB2312
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>楷体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">_GB2312 KaiTi_GB2312 \6977\4F53_GB2312 &amp;#x6977;&amp;#x4F53;_GB2312
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>微软正黑体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Microsoft JhengHei \5FAE\x8F6F\6B63\9ED1\4F53 &amp;#x5FAE;&amp;#x8F6F;&amp;#x6B63;&amp;#x9ED1;&amp;#x4F53;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>微软雅黑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Microsoft YaHei \5FAE\8F6F\96C5\9ED1 &amp;#x5FAE;&amp;#x8F6F;&amp;#x96C5;&amp;#x9ED1;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,6 +594,17 @@
       <name val="微軟正黑體"/>
       <family val="2"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="新細明體"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -677,10 +943,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -692,13 +958,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -918,7 +1184,7 @@
         <v>15</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -929,7 +1195,7 @@
         <v>15</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -940,7 +1206,7 @@
         <v>15</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -951,7 +1217,7 @@
         <v>15</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -962,7 +1228,7 @@
         <v>15</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -973,7 +1239,7 @@
         <v>15</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -984,7 +1250,7 @@
         <v>15</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -995,7 +1261,7 @@
         <v>15</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1006,7 +1272,7 @@
         <v>15</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1017,7 +1283,7 @@
         <v>15</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1028,7 +1294,7 @@
         <v>15</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1039,7 +1305,7 @@
         <v>15</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1050,7 +1316,7 @@
         <v>15</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1061,7 +1327,7 @@
         <v>15</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1072,7 +1338,7 @@
         <v>15</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1083,7 +1349,7 @@
         <v>15</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1094,7 +1360,7 @@
         <v>15</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1102,10 +1368,10 @@
         <v>0</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1113,10 +1379,10 @@
         <v>0</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1124,10 +1390,10 @@
         <v>0</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1135,10 +1401,10 @@
         <v>0</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1146,10 +1412,10 @@
         <v>0</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1157,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1168,10 +1434,10 @@
         <v>0</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1179,10 +1445,10 @@
         <v>0</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1190,10 +1456,10 @@
         <v>0</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1201,10 +1467,10 @@
         <v>0</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1212,10 +1478,10 @@
         <v>0</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1223,10 +1489,10 @@
         <v>0</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1234,10 +1500,10 @@
         <v>0</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1245,10 +1511,32 @@
         <v>0</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/css_lib.xlsx
+++ b/css_lib.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="75">
   <si>
     <t>css</t>
   </si>
@@ -73,13 +73,6 @@
   word-spacing（字间距）</t>
   </si>
   <si>
-    <t>◎◎列表
-  list-style（列表样式）
-  list-style-image（用于为列表指定定制的标记）
-  list-style-position（用于确定列表标记的位置）
-  list-style-type（用于设置列表的标记）</t>
-  </si>
-  <si>
     <t>◎◎表格
   border-collapse（用于控制表格相邻单元格的边框是否合并为单一边框）
   border-spacing（用于指定表格边框之间的空隙大小）
@@ -239,16 +232,6 @@
   <si>
     <t>用* { border: 2px
  solid green; }</t>
-  </si>
-  <si>
-    <t>.architect &gt; p {
- color: red;
- }只針對父子關係</t>
-  </si>
-  <si>
-    <t>.architect p+p {
- color: red;
- }兄弟</t>
   </si>
   <si>
     <t>li:first-child {
@@ -560,6 +543,212 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Microsoft YaHei \5FAE\8F6F\96C5\9ED1 &amp;#x5FAE;&amp;#x8F6F;&amp;#x96C5;&amp;#x9ED1;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">◎◎列表
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t></t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> list-style</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">（列表样式）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t></t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> list-style-image</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">（用于为列表指定定制的标记）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t></t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> list-style-position</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">（用于确定列表标记的位置）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t></t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> list-style-type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>（用于设置列表的标记）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.foo.bar {…} For element that implements class foo and bar together</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h1, p {
+    background-color: yellow;
+}
+Both h1 &amp; p element applies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>.architect &gt; p {
+ color: red;
+ }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>只針對父子關係</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>div+p
+Selects all &lt;p&gt; elements that are placed immediately after &lt;div&gt; elements</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>.architect p+p {
+ color: red;
+ }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>兄弟</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -943,10 +1132,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -958,13 +1147,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1019,7 +1208,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1030,7 +1219,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1041,7 +1230,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1052,7 +1241,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1060,10 +1249,10 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1071,10 +1260,10 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1082,10 +1271,10 @@
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1093,10 +1282,10 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1104,10 +1293,10 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1115,10 +1304,10 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1126,10 +1315,10 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1137,10 +1326,10 @@
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1148,10 +1337,10 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1159,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1170,10 +1359,10 @@
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1181,10 +1370,10 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1192,10 +1381,10 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1203,10 +1392,10 @@
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1214,10 +1403,10 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1225,10 +1414,10 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1236,10 +1425,10 @@
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1247,10 +1436,10 @@
         <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1258,10 +1447,10 @@
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1269,10 +1458,10 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1280,10 +1469,10 @@
         <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1291,10 +1480,10 @@
         <v>0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1302,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1313,10 +1502,10 @@
         <v>0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1324,10 +1513,10 @@
         <v>0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1335,10 +1524,10 @@
         <v>0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1346,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1357,10 +1546,10 @@
         <v>0</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1368,10 +1557,10 @@
         <v>0</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1379,10 +1568,10 @@
         <v>0</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1390,10 +1579,10 @@
         <v>0</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1401,10 +1590,10 @@
         <v>0</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1412,10 +1601,10 @@
         <v>0</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1423,10 +1612,10 @@
         <v>0</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1434,10 +1623,10 @@
         <v>0</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1445,10 +1634,10 @@
         <v>0</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1456,10 +1645,10 @@
         <v>0</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1467,10 +1656,10 @@
         <v>0</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1478,10 +1667,10 @@
         <v>0</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1489,10 +1678,10 @@
         <v>0</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1500,10 +1689,10 @@
         <v>0</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1511,32 +1700,65 @@
         <v>0</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C53" s="1" t="s">
+    </row>
+    <row r="55" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/css_lib.xlsx
+++ b/css_lib.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="10320" windowHeight="9405"/>
+    <workbookView xWindow="10305" yWindow="-15" windowWidth="10200" windowHeight="9405"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="84">
   <si>
     <t>css</t>
   </si>
@@ -750,6 +750,66 @@
       </rPr>
       <t>兄弟</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>背景漸變</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/* the 3 para of line-gradient means: turn x degree from 12 o'clock clockwise, bottom color, top color*/ 
+.color-bg-gradient-blue {background: linear-gradient(70deg, #6BCAE2, #7CDBF3);}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>底線</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/* The 5 para means: hori-offset, verti-offset, bluring, size, color */
+.shadow-1-blue{    box-shadow: 0.1em 0.1em 0.3em lightblue;}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shadow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.bottom-line-orange-1{ border-bottom: 0.3em solid #FE8402; }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>圓角化</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.border-radius-5 {border-radius:2em;}
+.border-radius-test {border-top-left-radius:2em; border-top-right-radius:2em;}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -822,7 +882,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -830,6 +890,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1132,10 +1195,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="B49" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1759,6 +1822,50 @@
       </c>
       <c r="C56" s="1" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/css_lib.xlsx
+++ b/css_lib.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="89">
   <si>
     <t>css</t>
   </si>
@@ -810,6 +810,76 @@
   <si>
     <t>.border-radius-5 {border-radius:2em;}
 .border-radius-test {border-top-left-radius:2em; border-top-right-radius:2em;}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>動畫</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.bg-down {
+  -moz-transition: all 0.4s ease-out;
+  /* FF4+ */
+  -o-transition: all 0.4s ease-out;
+  /* Opera 10.5+ */
+  -webkit-transition: all 0.4s ease-out;
+  /* Saf3.2+, Chrome */
+  -ms-transition: all 0.4s ease-out;
+  /* IE10 */
+  transition: all 0.4s ease-out;
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>因</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>media</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>元素改變而變</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(append css)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@media screen and (min-width: 759px) and (max-width: 1000px){…}
+@media screen and (max-width: 758px) {…}
+@media screen and (min-width: 1001px) {…}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -882,7 +952,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -892,6 +962,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1195,10 +1268,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B49" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1866,6 +1939,28 @@
       </c>
       <c r="C60" s="4" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/css_lib.xlsx
+++ b/css_lib.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="90">
   <si>
     <t>css</t>
   </si>
@@ -127,9 +127,6 @@
     <t>color: #59007f;</t>
   </si>
   <si>
-    <t>background-color: rgba(60,143,0,.75); /* 25% 透明度 */</t>
-  </si>
-  <si>
     <t>font-size: 100%;</t>
   </si>
   <si>
@@ -177,9 +174,6 @@
   </si>
   <si>
     <t>Color</t>
-  </si>
-  <si>
-    <t>CSS3 指定了CSS2.1 本来就有的16 个基本的名称（参见图7.5.6），另外又增加了131 个。完整的列表见www.w3.org/TR/css3-color/#svg-color。</t>
   </si>
   <si>
     <t>HTML&lt;&gt;CSS</t>
@@ -768,11 +762,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/* the 3 para of line-gradient means: turn x degree from 12 o'clock clockwise, bottom color, top color*/ 
-.color-bg-gradient-blue {background: linear-gradient(70deg, #6BCAE2, #7CDBF3);}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -880,6 +869,138 @@
     <t>@media screen and (min-width: 759px) and (max-width: 1000px){…}
 @media screen and (max-width: 758px) {…}
 @media screen and (min-width: 1001px) {…}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/* the 3 para of line-gradient means: turn x degree from 12 o'clock clockwise, bottom color, top color*/ 
+.color-bg-gradient-blue {background: linear-gradient(70deg, #6BCAE2, #7CDBF3);}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CSS3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>指定了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">CSS2.1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>本来就有的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">16 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>个基本的名称（参见图</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>7.5.6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>），另外又增加了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">131 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>个。完整的列表见</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>www.w3.org/TR/css3-color/#svg-color</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">background-color: rgba(60,143,0,.75); /* 25% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>透明度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  */</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attributes transparency</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1270,8 +1391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1283,13 +1404,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1344,7 +1465,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1495,10 +1616,10 @@
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1509,7 +1630,7 @@
         <v>14</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1520,7 +1641,7 @@
         <v>14</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1531,7 +1652,7 @@
         <v>14</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1542,7 +1663,7 @@
         <v>14</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1553,7 +1674,7 @@
         <v>14</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1564,7 +1685,7 @@
         <v>14</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1575,7 +1696,7 @@
         <v>14</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1586,7 +1707,7 @@
         <v>14</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1597,7 +1718,7 @@
         <v>14</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1608,7 +1729,7 @@
         <v>14</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1619,7 +1740,7 @@
         <v>14</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1630,7 +1751,7 @@
         <v>14</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1641,7 +1762,7 @@
         <v>14</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1652,7 +1773,7 @@
         <v>14</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1663,7 +1784,7 @@
         <v>14</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1674,7 +1795,7 @@
         <v>14</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1685,7 +1806,7 @@
         <v>14</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1693,10 +1814,10 @@
         <v>0</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1704,10 +1825,10 @@
         <v>0</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1715,10 +1836,10 @@
         <v>0</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1726,10 +1847,10 @@
         <v>0</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1737,10 +1858,10 @@
         <v>0</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1748,10 +1869,10 @@
         <v>0</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1759,10 +1880,10 @@
         <v>0</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1770,10 +1891,10 @@
         <v>0</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1781,10 +1902,10 @@
         <v>0</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1792,10 +1913,10 @@
         <v>0</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1803,10 +1924,10 @@
         <v>0</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1814,10 +1935,10 @@
         <v>0</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1825,10 +1946,10 @@
         <v>0</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1836,32 +1957,32 @@
         <v>0</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1869,10 +1990,10 @@
         <v>0</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1880,87 +2001,87 @@
         <v>0</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="C62" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
